--- a/output/nswhealthitocmedication.xlsx
+++ b/output/nswhealthitocmedication.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="316">
   <si>
     <t>Path</t>
   </si>
@@ -709,13 +709,25 @@
     <t>cerner</t>
   </si>
   <si>
+    <t>The cerner (MULTUM) code for the medication</t>
+  </si>
+  <si>
     <t>http://cerner.com/itoc/codes</t>
   </si>
   <si>
+    <t>Cerner (MULTUM) code value</t>
+  </si>
+  <si>
     <t>imdsoft</t>
   </si>
   <si>
+    <t>The MetaVision / IMDsoft code for the medication</t>
+  </si>
+  <si>
     <t>http://www.imd-soft.com/itoc/codes</t>
+  </si>
+  <si>
+    <t>MetaVision / IMDsoft code value</t>
   </si>
   <si>
     <t>Medication.code.text</t>
@@ -6790,7 +6802,7 @@
         <v>147</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>149</v>
@@ -7139,7 +7151,7 @@
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>40</v>
@@ -7347,7 +7359,7 @@
         <v>69</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>180</v>
@@ -7659,7 +7671,7 @@
         <v>146</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>40</v>
@@ -7684,7 +7696,7 @@
         <v>147</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>149</v>
@@ -8033,7 +8045,7 @@
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>40</v>
@@ -8241,7 +8253,7 @@
         <v>69</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>180</v>
@@ -8550,7 +8562,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8576,16 +8588,16 @@
         <v>51</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -8634,7 +8646,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8652,18 +8664,18 @@
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8689,13 +8701,13 @@
         <v>69</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -8721,31 +8733,31 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE68" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8763,7 +8775,7 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -8774,7 +8786,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8797,13 +8809,13 @@
         <v>50</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8854,7 +8866,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -8869,21 +8881,21 @@
         <v>61</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8909,13 +8921,13 @@
         <v>125</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -8945,25 +8957,25 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -8978,21 +8990,21 @@
         <v>61</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9015,13 +9027,13 @@
         <v>50</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9072,7 +9084,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9090,7 +9102,7 @@
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9101,7 +9113,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9124,16 +9136,16 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9183,7 +9195,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9201,7 +9213,7 @@
         <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -9212,7 +9224,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9321,7 +9333,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9432,11 +9444,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9458,10 +9470,10 @@
         <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>114</v>
@@ -9516,7 +9528,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9545,7 +9557,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9568,17 +9580,17 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9615,17 +9627,17 @@
         <v>40</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AB76" s="2"/>
       <c r="AC76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>49</v>
@@ -9643,21 +9655,21 @@
         <v>132</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>40</v>
@@ -9682,14 +9694,14 @@
         <v>125</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -9718,7 +9730,7 @@
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>40</v>
@@ -9736,7 +9748,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>49</v>
@@ -9754,18 +9766,18 @@
         <v>132</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9791,14 +9803,14 @@
         <v>193</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -9847,7 +9859,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -9865,7 +9877,7 @@
         <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -9876,7 +9888,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9899,13 +9911,13 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9956,7 +9968,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -9971,21 +9983,21 @@
         <v>61</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10008,13 +10020,13 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10065,7 +10077,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10080,10 +10092,10 @@
         <v>61</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -10094,7 +10106,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10203,7 +10215,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10314,11 +10326,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10340,10 +10352,10 @@
         <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>114</v>
@@ -10398,7 +10410,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10427,7 +10439,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10453,10 +10465,10 @@
         <v>51</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10507,7 +10519,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10522,7 +10534,7 @@
         <v>61</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>122</v>
@@ -10531,12 +10543,12 @@
         <v>40</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10559,13 +10571,13 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10616,7 +10628,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10631,16 +10643,16 @@
         <v>61</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/output/nswhealthitocmedication.xlsx
+++ b/output/nswhealthitocmedication.xlsx
@@ -6784,10 +6784,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -7678,10 +7678,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>

--- a/output/nswhealthitocmedication.xlsx
+++ b/output/nswhealthitocmedication.xlsx
@@ -6784,7 +6784,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>42</v>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>42</v>

--- a/output/nswhealthitocmedication.xlsx
+++ b/output/nswhealthitocmedication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$87</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3049" uniqueCount="316">
   <si>
     <t>Path</t>
   </si>
@@ -1158,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM85"/>
+  <dimension ref="A1:AM87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7024,14 +7024,12 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7098,7 +7096,7 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -7109,15 +7107,17 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>49</v>
@@ -7129,29 +7129,25 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>40</v>
@@ -7193,36 +7189,36 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7230,7 +7226,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>49</v>
@@ -7245,24 +7241,26 @@
         <v>50</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>40</v>
@@ -7304,7 +7302,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7322,18 +7320,18 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7341,7 +7339,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>49</v>
@@ -7356,18 +7354,18 @@
         <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7415,7 +7413,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7433,18 +7431,18 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7452,7 +7450,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>49</v>
@@ -7467,17 +7465,17 @@
         <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7526,7 +7524,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7544,18 +7542,18 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7578,19 +7576,17 @@
         <v>50</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7639,7 +7635,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7657,22 +7653,20 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7681,7 +7675,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -7693,19 +7687,19 @@
         <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7754,13 +7748,13 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -7772,20 +7766,22 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>155</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>40</v>
       </c>
@@ -7794,7 +7790,7 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -7803,19 +7799,23 @@
         <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
@@ -7863,47 +7863,47 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -7915,17 +7915,15 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -7962,31 +7960,31 @@
         <v>40</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>40</v>
@@ -8003,7 +8001,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8011,10 +8009,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8023,29 +8021,25 @@
         <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>40</v>
@@ -8075,50 +8069,52 @@
         <v>40</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B63" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="C63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8136,20 +8132,18 @@
         <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8198,36 +8192,36 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8250,24 +8244,26 @@
         <v>50</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N64" t="s" s="2">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>40</v>
@@ -8309,7 +8305,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8327,18 +8323,18 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8364,15 +8360,15 @@
         <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8420,7 +8416,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8438,18 +8434,18 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8457,7 +8453,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>49</v>
@@ -8472,19 +8468,17 @@
         <v>50</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8533,7 +8527,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8551,18 +8545,18 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8588,16 +8582,14 @@
         <v>51</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -8646,7 +8638,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8664,18 +8656,18 @@
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>233</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8692,24 +8684,26 @@
         <v>40</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
@@ -8733,13 +8727,13 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
@@ -8757,7 +8751,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8775,18 +8769,18 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8809,16 +8803,20 @@
         <v>50</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>40</v>
       </c>
@@ -8866,7 +8864,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -8881,21 +8879,21 @@
         <v>61</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8912,22 +8910,22 @@
         <v>40</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -8953,11 +8951,13 @@
         <v>40</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X70" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="Y70" t="s" s="2">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>40</v>
@@ -8975,7 +8975,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -8990,21 +8990,21 @@
         <v>61</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>257</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9027,13 +9027,13 @@
         <v>50</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9084,7 +9084,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9099,21 +9099,21 @@
         <v>61</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9124,7 +9124,7 @@
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>40</v>
@@ -9136,16 +9136,16 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9171,13 +9171,11 @@
         <v>40</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>40</v>
@@ -9195,13 +9193,13 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>40</v>
@@ -9210,21 +9208,21 @@
         <v>61</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9244,16 +9242,16 @@
         <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>51</v>
+        <v>259</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9304,7 +9302,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9316,13 +9314,13 @@
         <v>40</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
@@ -9333,11 +9331,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9356,16 +9354,16 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>114</v>
+        <v>267</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9415,7 +9413,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>145</v>
+        <v>263</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9427,13 +9425,13 @@
         <v>40</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -9444,43 +9442,39 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>40</v>
       </c>
@@ -9528,25 +9522,25 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9557,18 +9551,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>40</v>
@@ -9580,18 +9574,18 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>277</v>
+        <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
       </c>
@@ -9627,81 +9621,83 @@
         <v>40</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AB76" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>276</v>
+        <v>145</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N77" t="s" s="2">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -9726,11 +9722,13 @@
         <v>40</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X77" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y77" t="s" s="2">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>40</v>
@@ -9748,36 +9746,36 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>283</v>
+        <v>92</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9785,7 +9783,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>49</v>
@@ -9800,17 +9798,17 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -9847,22 +9845,20 @@
         <v>40</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AB78" s="2"/>
       <c r="AC78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>49</v>
@@ -9874,23 +9870,25 @@
         <v>61</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>40</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="C79" t="s" s="2">
         <v>40</v>
       </c>
@@ -9911,16 +9909,18 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>40</v>
       </c>
@@ -9944,13 +9944,11 @@
         <v>40</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>40</v>
@@ -9968,10 +9966,10 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>49</v>
@@ -9983,21 +9981,21 @@
         <v>61</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10020,16 +10018,18 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>40</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10092,10 +10092,10 @@
         <v>61</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -10106,7 +10106,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10129,13 +10129,13 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>51</v>
+        <v>259</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>137</v>
+        <v>295</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>138</v>
+        <v>296</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10186,7 +10186,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>139</v>
+        <v>294</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10198,35 +10198,35 @@
         <v>40</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>40</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>40</v>
@@ -10238,17 +10238,15 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>142</v>
+        <v>300</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>40</v>
@@ -10297,25 +10295,25 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>145</v>
+        <v>299</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>140</v>
+        <v>302</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
@@ -10326,43 +10324,39 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>40</v>
       </c>
@@ -10410,25 +10404,25 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
@@ -10439,18 +10433,18 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>40</v>
@@ -10462,15 +10456,17 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>307</v>
+        <v>142</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>40</v>
@@ -10519,68 +10515,72 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>306</v>
+        <v>145</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>311</v>
+        <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>40</v>
       </c>
@@ -10628,35 +10628,253 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AF85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI85" t="s" s="2">
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI87" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AJ85" t="s" s="2">
+      <c r="AJ87" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AK85" t="s" s="2">
+      <c r="AK87" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>315</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM85">
+  <autoFilter ref="A1:AM87">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10666,7 +10884,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/nswhealthitocmedication.xlsx
+++ b/output/nswhealthitocmedication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3049" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="319">
   <si>
     <t>Path</t>
   </si>
@@ -710,6 +710,16 @@
   </si>
   <si>
     <t>The cerner (MULTUM) code for the medication</t>
+  </si>
+  <si>
+    <t>itoc-medication-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.health.nsw.gov.au/fhir/ehealth/itoc/v1.0/StructureDefinition/itocmedicationtype}
+</t>
+  </si>
+  <si>
+    <t>generic | product | brand</t>
   </si>
   <si>
     <t>http://cerner.com/itoc/codes</t>
@@ -1158,7 +1168,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM87"/>
+  <dimension ref="A1:AM89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7218,15 +7228,17 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>49</v>
@@ -7238,29 +7250,25 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>40</v>
@@ -7302,36 +7310,36 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7339,7 +7347,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>49</v>
@@ -7354,24 +7362,26 @@
         <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>40</v>
@@ -7413,7 +7423,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7431,18 +7441,18 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7450,7 +7460,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>49</v>
@@ -7465,18 +7475,18 @@
         <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7524,7 +7534,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7542,18 +7552,18 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7561,7 +7571,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>49</v>
@@ -7576,17 +7586,17 @@
         <v>50</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7635,7 +7645,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7653,18 +7663,18 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7687,19 +7697,17 @@
         <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7748,7 +7756,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7766,22 +7774,20 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>40</v>
       </c>
@@ -7790,7 +7796,7 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -7802,19 +7808,19 @@
         <v>50</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -7863,13 +7869,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -7881,20 +7887,22 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>155</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>40</v>
       </c>
@@ -7903,7 +7911,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -7912,19 +7920,23 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -7972,36 +7984,36 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8012,7 +8024,7 @@
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8024,13 +8036,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8069,37 +8081,37 @@
         <v>40</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8112,9 +8124,7 @@
       <c r="A63" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="B63" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8123,7 +8133,7 @@
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8135,13 +8145,13 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8180,16 +8190,16 @@
         <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>145</v>
@@ -8221,15 +8231,17 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>49</v>
@@ -8241,29 +8253,25 @@
         <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>40</v>
@@ -8305,38 +8313,40 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="C65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8354,20 +8364,18 @@
         <v>40</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8416,36 +8424,36 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8468,24 +8476,26 @@
         <v>50</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N66" t="s" s="2">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>40</v>
@@ -8527,7 +8537,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8545,18 +8555,18 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8582,15 +8592,15 @@
         <v>51</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
@@ -8638,7 +8648,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8656,18 +8666,18 @@
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8675,7 +8685,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>49</v>
@@ -8690,19 +8700,17 @@
         <v>50</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
@@ -8751,7 +8759,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8769,18 +8777,18 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8806,16 +8814,14 @@
         <v>51</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -8864,7 +8870,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -8882,18 +8888,18 @@
         <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>233</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8910,24 +8916,26 @@
         <v>40</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
@@ -8951,13 +8959,13 @@
         <v>40</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>40</v>
@@ -8975,7 +8983,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -8993,18 +9001,18 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9027,16 +9035,20 @@
         <v>50</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9084,7 +9096,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9099,21 +9111,21 @@
         <v>61</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9130,22 +9142,22 @@
         <v>40</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9171,11 +9183,13 @@
         <v>40</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X72" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="Y72" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>40</v>
@@ -9193,7 +9207,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9208,21 +9222,21 @@
         <v>61</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>257</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9245,13 +9259,13 @@
         <v>50</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9302,7 +9316,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9317,21 +9331,21 @@
         <v>61</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>40</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9342,7 +9356,7 @@
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>40</v>
@@ -9354,16 +9368,16 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9389,13 +9403,11 @@
         <v>40</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>40</v>
@@ -9413,13 +9425,13 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>40</v>
@@ -9428,21 +9440,21 @@
         <v>61</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>40</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9462,16 +9474,16 @@
         <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9522,7 +9534,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>139</v>
+        <v>261</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9534,13 +9546,13 @@
         <v>40</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9551,11 +9563,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9574,16 +9586,16 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>94</v>
+        <v>267</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>142</v>
+        <v>268</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>143</v>
+        <v>269</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>114</v>
+        <v>270</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -9633,7 +9645,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9645,13 +9657,13 @@
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -9662,43 +9674,39 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>40</v>
       </c>
@@ -9746,25 +9754,25 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -9775,18 +9783,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>40</v>
@@ -9798,18 +9806,18 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>277</v>
+        <v>94</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>40</v>
       </c>
@@ -9845,81 +9853,83 @@
         <v>40</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AB78" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>276</v>
+        <v>145</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N79" t="s" s="2">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -9944,11 +9954,13 @@
         <v>40</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X79" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y79" t="s" s="2">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>40</v>
@@ -9966,36 +9978,36 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>283</v>
+        <v>92</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10003,7 +10015,7 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>49</v>
@@ -10018,17 +10030,17 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>40</v>
@@ -10065,22 +10077,20 @@
         <v>40</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="AB80" s="2"/>
       <c r="AC80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>49</v>
@@ -10092,23 +10102,25 @@
         <v>61</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>40</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="C81" t="s" s="2">
         <v>40</v>
       </c>
@@ -10129,16 +10141,18 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>40</v>
       </c>
@@ -10162,13 +10176,11 @@
         <v>40</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="X81" s="2"/>
       <c r="Y81" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>40</v>
@@ -10186,10 +10198,10 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>49</v>
@@ -10201,21 +10213,21 @@
         <v>61</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10238,16 +10250,18 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>40</v>
       </c>
@@ -10295,7 +10309,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10310,10 +10324,10 @@
         <v>61</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
@@ -10324,7 +10338,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10347,13 +10361,13 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>138</v>
+        <v>299</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10404,7 +10418,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>139</v>
+        <v>297</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10416,35 +10430,35 @@
         <v>40</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>40</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>40</v>
@@ -10456,17 +10470,15 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>94</v>
+        <v>267</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>142</v>
+        <v>303</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>40</v>
@@ -10515,25 +10527,25 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>140</v>
+        <v>305</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10544,43 +10556,39 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>40</v>
       </c>
@@ -10628,25 +10636,25 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
@@ -10657,18 +10665,18 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>40</v>
@@ -10680,15 +10688,17 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>307</v>
+        <v>142</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -10737,68 +10747,72 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>306</v>
+        <v>145</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>311</v>
+        <v>94</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
       </c>
@@ -10846,35 +10860,253 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AF87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI87" t="s" s="2">
+      <c r="L88" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AJ87" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AK87" t="s" s="2">
+      <c r="AJ88" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J89" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM87" t="s" s="2">
+      <c r="K89" t="s" s="2">
         <v>315</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM87">
+  <autoFilter ref="A1:AM89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10884,7 +11116,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
